--- a/Julio/29 julio/alvarado/PLANTILLA LISTA DE ASPIRANTES - 2da aplicación 2024.xlsx
+++ b/Julio/29 julio/alvarado/PLANTILLA LISTA DE ASPIRANTES - 2da aplicación 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Julio\29 julio\alvarado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4510690B-18B6-4967-83B3-79C6C0F36887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E77EC-5B34-465D-B0F5-F93A47A53A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3285,20 +3285,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D137AA-41E5-5140-AC23-8A814C9A306A}">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="21.125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.375" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="22.375" customWidth="1"/>
     <col min="10" max="10" width="21.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.25" customWidth="1"/>
     <col min="12" max="12" width="8.125" bestFit="1" customWidth="1"/>
